--- a/excel/CreditCard-Iris.xlsx
+++ b/excel/CreditCard-Iris.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A5D7848-3382-4891-B1A4-6834DBC96BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BFE851-B42A-49F6-A04A-5A81C611A16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,15 +414,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
@@ -459,10 +461,10 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
